--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM-Lesson-Learned_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM-Lesson-Learned_Ver1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5CB3FF-926F-4AEE-93CF-BC369492CCF6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B194E7-9F4E-43B5-A585-CE62451DFB53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="4" activeTab="4" xr2:uid="{5F73FFBD-5C3A-4814-BCBC-28C9706C53DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{5F73FFBD-5C3A-4814-BCBC-28C9706C53DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="10" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="93">
   <si>
     <r>
       <t xml:space="preserve">
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Management - Leadership</t>
-  </si>
-  <si>
-    <t>Others</t>
   </si>
   <si>
     <t>Vai trò của tôi trong dự án này. Những đóng góp tích cực của tôi cho tiến độ và kết quả của dự án.</t>
@@ -335,7 +332,28 @@
     <t xml:space="preserve">Giúp đỡ nhau cùng làm việc </t>
   </si>
   <si>
-    <t xml:space="preserve">Vai trò của tôi trong dự án là Testẻ. Tôi đảm nhiệm về test của dự án và một số tài liệu liên quan.			</t>
+    <t>Design - Hiểu biết sâu hơn về design. Có kiến thức thêm về làm dự án thực tế</t>
+  </si>
+  <si>
+    <t>Code - Có thêm kiến thức mới về ngôn ngữ lập trình và kinh nghiệm làm dự án thực tế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vai trò của tôi trong dự án là Tester. Tôi đảm nhiệm về test của dự án và một số tài liệu liên quan.			</t>
+  </si>
+  <si>
+    <t>Test - Hiểu được tầm quan trọng của tester và cũng có được trải nghiệm thực tế</t>
+  </si>
+  <si>
+    <t>Nhóm làm teamwork rất tốt không có gặp khó khăn.</t>
+  </si>
+  <si>
+    <t>Mỗi người đều có trách nhiệm và ý thức không đun đẩy công việc</t>
+  </si>
+  <si>
+    <t>Có những hoạt động xa đọa để nâng cao tinh thần đồng đội</t>
+  </si>
+  <si>
+    <t>Không gặp khó khăn về quản lý, mọi thành viên đều có trách nhiệm với bản thân.</t>
   </si>
 </sst>
 </file>
@@ -1088,6 +1106,24 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1106,24 +1142,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,6 +1154,48 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1159,48 +1219,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1675,7 +1693,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -1722,10 +1740,10 @@
       <c r="J3" s="42"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="43" t="s">
         <v>43</v>
-      </c>
-      <c r="M3" s="43" t="s">
-        <v>44</v>
       </c>
       <c r="N3" s="44"/>
       <c r="O3" s="24"/>
@@ -1743,10 +1761,10 @@
       <c r="J4" s="42"/>
       <c r="K4" s="22"/>
       <c r="L4" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="43" t="s">
         <v>45</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>46</v>
       </c>
       <c r="N4" s="44"/>
       <c r="O4" s="24"/>
@@ -1764,10 +1782,10 @@
       <c r="J5" s="42"/>
       <c r="K5" s="22"/>
       <c r="L5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="43" t="s">
         <v>47</v>
-      </c>
-      <c r="M5" s="43" t="s">
-        <v>48</v>
       </c>
       <c r="N5" s="44"/>
       <c r="O5" s="24"/>
@@ -1785,10 +1803,10 @@
       <c r="J6" s="42"/>
       <c r="K6" s="22"/>
       <c r="L6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="43" t="s">
         <v>49</v>
-      </c>
-      <c r="M6" s="43" t="s">
-        <v>50</v>
       </c>
       <c r="N6" s="44"/>
       <c r="O6" s="24"/>
@@ -1806,7 +1824,7 @@
       <c r="J7" s="42"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M7" s="45">
         <v>43994</v>
@@ -1878,7 +1896,7 @@
       <c r="J11" s="42"/>
       <c r="K11" s="22"/>
       <c r="L11" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M11" s="48"/>
       <c r="N11" s="48"/>
@@ -1897,16 +1915,16 @@
       <c r="J12" s="42"/>
       <c r="K12" s="22"/>
       <c r="L12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="27" t="s">
+      <c r="N12" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="N12" s="27" t="s">
+      <c r="O12" s="27" t="s">
         <v>55</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1922,16 +1940,16 @@
       <c r="J13" s="42"/>
       <c r="K13" s="22"/>
       <c r="L13" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M13" s="29">
         <v>43994</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O13" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2072,7 +2090,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2085,115 +2103,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="56" t="str">
+      <c r="B8" s="53"/>
+      <c r="C8" s="50" t="str">
         <f>'Huỳnh Tuấn Đạt'!C1:E1</f>
         <v>Huỳnh Tuấn Đạt</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="51"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="56" t="str">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="50" t="str">
         <f>'Trịnh Thị Như Phương'!C1:E1</f>
         <v>Trịnh Thị Như Phương</v>
       </c>
-      <c r="D9" s="57"/>
+      <c r="D9" s="51"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="56" t="str">
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="50" t="str">
         <f>'Nguyễn Anh Minh'!C1:E1</f>
         <v>Nguyễn Anh Minh</v>
       </c>
-      <c r="D10" s="57"/>
+      <c r="D10" s="51"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="56" t="str">
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="50" t="str">
         <f>'Trương Quang Vương'!C1:E1</f>
         <v>Trương Quang Vương</v>
       </c>
-      <c r="D11" s="57"/>
+      <c r="D11" s="51"/>
     </row>
     <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="56" t="str">
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="50" t="str">
         <f>'Phạm Quốc Nhân'!C1:E1</f>
         <v>Phạm Quốc Nhân</v>
       </c>
-      <c r="D12" s="57"/>
+      <c r="D12" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A8:B12"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2205,7 +2223,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2240,37 +2258,55 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="63"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="7">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="7">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
@@ -2279,58 +2315,49 @@
       <c r="B12" s="65"/>
     </row>
     <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="65"/>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2353,15 +2380,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="A1" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
@@ -2371,75 +2398,75 @@
       <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="66" t="s">
+      <c r="B5" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
+      <c r="B6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="69"/>
+    </row>
+    <row r="7" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="72"/>
+      <c r="B7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="C7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="77"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
-      <c r="B6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="79"/>
-    </row>
-    <row r="7" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="85"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
+      <c r="B8" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
@@ -2454,33 +2481,33 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2492,7 +2519,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2503,15 +2530,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="A1" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
@@ -2522,10 +2549,10 @@
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="92"/>
       <c r="D3" s="92"/>
@@ -2533,8 +2560,8 @@
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="91"/>
-      <c r="B4" s="66" t="s">
-        <v>86</v>
+      <c r="B4" s="80" t="s">
+        <v>87</v>
       </c>
       <c r="C4" s="93"/>
       <c r="D4" s="93"/>
@@ -2542,50 +2569,50 @@
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+        <v>22</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94"/>
       <c r="B6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="79"/>
+      <c r="E6" s="69"/>
     </row>
     <row r="7" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="91"/>
       <c r="B7" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="85"/>
+      <c r="E7" s="77"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2606,10 +2633,10 @@
     <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="90"/>
       <c r="B10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -2649,15 +2676,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="A1" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
@@ -2668,10 +2695,10 @@
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="92"/>
       <c r="D3" s="92"/>
@@ -2679,8 +2706,8 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A4" s="91"/>
-      <c r="B4" s="66" t="s">
-        <v>60</v>
+      <c r="B4" s="80" t="s">
+        <v>59</v>
       </c>
       <c r="C4" s="93"/>
       <c r="D4" s="93"/>
@@ -2688,47 +2715,47 @@
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+        <v>22</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94"/>
       <c r="B6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="79"/>
+      <c r="E6" s="69"/>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="91"/>
       <c r="B7" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="76" t="s">
         <v>62</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>63</v>
       </c>
       <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="95" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="95" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="96"/>
       <c r="D8" s="97"/>
@@ -2752,16 +2779,16 @@
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="90"/>
       <c r="B10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2799,90 +2826,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="A1" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="66" t="s">
+      <c r="B5" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
+      <c r="B6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="69"/>
+    </row>
+    <row r="7" spans="1:5" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="72"/>
+      <c r="B7" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="C7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="77"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
-      <c r="B6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="79"/>
-    </row>
-    <row r="7" spans="1:5" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="85"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
+      <c r="B8" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="83"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
@@ -2897,16 +2924,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>80</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2944,15 +2971,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="A1" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
@@ -2963,10 +2990,10 @@
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="104"/>
       <c r="D3" s="104"/>
@@ -2975,7 +3002,7 @@
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="102"/>
       <c r="B4" s="105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="106"/>
       <c r="D4" s="106"/>
@@ -2983,10 +3010,10 @@
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="109"/>
       <c r="D5" s="109"/>
@@ -2995,35 +3022,35 @@
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="107"/>
       <c r="B6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="110" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="110" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="111"/>
     </row>
     <row r="7" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="102"/>
       <c r="B7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="76" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>36</v>
       </c>
       <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="95" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="95" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="96"/>
       <c r="D8" s="97"/>
@@ -3047,16 +3074,16 @@
     <row r="10" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A10" s="101"/>
       <c r="B10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
